--- a/ECP 4044 ~ Economic Analysis/GusTheGrocer.xlsx
+++ b/ECP 4044 ~ Economic Analysis/GusTheGrocer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guslipkin/Documents/Spring2020/ECP 4044 ~ Economic Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04CDD243-457B-7140-A956-292DC2D35786}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E101524-B122-0F46-8CA4-84168E5F91F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="17500" xr2:uid="{8D9098CD-176D-0D49-99BF-737F0FF0147A}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{8D9098CD-176D-0D49-99BF-737F0FF0147A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">13.4036514</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>t</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>r=</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
   </si>
 </sst>
 </file>
@@ -440,15 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E74EDF8-0326-3547-9E94-36EBEB650342}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -456,7 +462,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -470,22 +476,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0.01</v>
       </c>
       <c r="D3">
         <f xml:space="preserve"> B3 / (POWER((1 + C3), A3))</f>
-        <v>0.99009900990099009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8.9108910891089117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -500,136 +506,120 @@
         <v>0.98029604940692083</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="C5">
         <v>0.01</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D4:D12" si="0" xml:space="preserve"> B5 / (POWER((1 + C5), A5))</f>
-        <v>0.97059014792764453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D5:D12" si="0" xml:space="preserve"> B5 / (POWER((1 + C5), A5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
       <c r="C6">
         <v>0.01</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.96098034448281622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
       <c r="C7">
         <v>0.01</v>
       </c>
       <c r="D7">
         <f xml:space="preserve"> B7 / (POWER((1 + C7), A7))</f>
-        <v>0.95146568760674888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
       <c r="C8">
         <v>0.01</v>
       </c>
       <c r="D8">
         <f xml:space="preserve"> B8 / (POWER((1 + C8), A8))</f>
-        <v>0.94204523525420658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
       <c r="C9">
         <v>0.01</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.93271805470713554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
       <c r="C10">
         <v>0.01</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.92348322248231218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
       <c r="C11">
         <v>0.01</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.91433982423991289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
       <c r="C12">
         <v>0.01</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.90528695469298315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13">
         <f xml:space="preserve"> SUM(D3:D12)</f>
-        <v>9.471304530701671</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9.8911871385158321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -642,141 +632,65 @@
       <c r="D16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>0.01</v>
       </c>
       <c r="D17">
         <f xml:space="preserve"> B17 / (POWER((1 + C17), A17))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
+        <v>9.9009900990099009</v>
+      </c>
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
         <v>0.05</v>
       </c>
+      <c r="I17">
+        <f xml:space="preserve"> G17 / (POWER((1 + H17), F17))</f>
+        <v>9.0702947845804989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
       <c r="D18">
-        <f t="shared" ref="D18:D26" si="1" xml:space="preserve"> B18 / (POWER((1 + C18), A18))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>0.05</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>0.05</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
+        <f xml:space="preserve"> SUM(D17:D17)</f>
+        <v>9.9009900990099009</v>
+      </c>
+      <c r="E18">
+        <f xml:space="preserve"> D13 + D18</f>
+        <v>19.792177237525735</v>
+      </c>
+      <c r="H18" t="s">
         <v>5</v>
       </c>
-      <c r="C21">
-        <v>0.05</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>0.05</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>0.05</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>0.05</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>0.05</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <v>0.05</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <f xml:space="preserve"> SUM(D17:D26)</f>
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f xml:space="preserve"> D13 + D27</f>
-        <v>9.471304530701671</v>
+      <c r="I18">
+        <f xml:space="preserve"> SUM(I17:I17)</f>
+        <v>9.0702947845804989</v>
       </c>
     </row>
   </sheetData>
